--- a/admin/web/files/translate.xlsx
+++ b/admin/web/files/translate.xlsx
@@ -2295,7 +2295,7 @@
   <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="C158" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
